--- a/public/Reporte_por_tipo_entrada.xlsx
+++ b/public/Reporte_por_tipo_entrada.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>DETALLE DE ENTRADAS AL ALMACÉN (Por tipo de entrada)</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Importe (Bs)</t>
   </si>
   <si>
-    <t>I.V.A.</t>
+    <t>I.V.A. (Bs)</t>
   </si>
   <si>
     <t>Costo (Bs)</t>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>2023/11/07</t>
+  </si>
+  <si>
+    <t>2023/11/08</t>
+  </si>
+  <si>
+    <t>2023/11/09</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -543,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E66" sqref="E66:G66"/>
+      <selection activeCell="E71" sqref="E71:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,277 +994,277 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7">
-        <v>1850.0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>134.55</v>
-      </c>
-      <c r="G22" s="7">
-        <v>1715.45</v>
+      <c r="C22" s="5">
+        <v>3123</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
+        <v>54</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5">
+        <v>12312</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>87.0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="5">
+        <v>2312</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7">
+        <v>2190.0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>147.55</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2042.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5">
         <v>34</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C28" s="5">
         <v>23123</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E28" s="6">
         <v>120.0</v>
       </c>
-      <c r="F25" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="6">
         <v>120.0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="7">
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="7">
         <v>120.0</v>
       </c>
-      <c r="F26" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F29" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="7">
         <v>120.0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5">
-        <v>234</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="6">
-        <v>115.0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2233</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="6">
-        <v>135.0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>135.0</v>
-      </c>
-    </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2232</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>45.0</v>
-      </c>
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="5">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32" s="6">
-        <v>140.0</v>
+        <v>115.0</v>
       </c>
       <c r="F32" s="6">
         <v>0.0</v>
       </c>
       <c r="G32" s="6">
-        <v>140.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5">
-        <v>23232</v>
+        <v>2233</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="6">
-        <v>320.0</v>
+        <v>135.0</v>
       </c>
       <c r="F33" s="6">
-        <v>41.6</v>
+        <v>0.0</v>
       </c>
       <c r="G33" s="6">
-        <v>278.4</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" s="5">
-        <v>34324</v>
+        <v>2232</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="F34" s="6">
         <v>0.0</v>
       </c>
       <c r="G34" s="6">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C35" s="5">
-        <v>34343</v>
+        <v>232</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E35" s="6">
-        <v>142.0</v>
+        <v>140.0</v>
       </c>
       <c r="F35" s="6">
         <v>0.0</v>
       </c>
       <c r="G35" s="6">
-        <v>142.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="5">
-        <v>312</v>
+        <v>23232</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="6">
-        <v>15.0</v>
+        <v>320.0</v>
       </c>
       <c r="F36" s="6">
-        <v>0.0</v>
+        <v>41.6</v>
       </c>
       <c r="G36" s="6">
-        <v>15.0</v>
+        <v>278.4</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="5">
-        <v>232</v>
+        <v>34324</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>15</v>
@@ -1275,36 +1281,36 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C38" s="5">
-        <v>232</v>
+        <v>34343</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E38" s="6">
-        <v>40.0</v>
+        <v>142.0</v>
       </c>
       <c r="F38" s="6">
         <v>0.0</v>
       </c>
       <c r="G38" s="6">
-        <v>40.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="5">
-        <v>2323</v>
+        <v>312</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>13</v>
@@ -1321,409 +1327,409 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="5">
-        <v>2323</v>
+        <v>232</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="6">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="F40" s="6">
-        <v>2.34</v>
+        <v>0.0</v>
       </c>
       <c r="G40" s="6">
-        <v>15.66</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C41" s="5">
-        <v>23232</v>
+        <v>232</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="6">
-        <v>155.0</v>
+        <v>40.0</v>
       </c>
       <c r="F41" s="6">
-        <v>20.15</v>
+        <v>0.0</v>
       </c>
       <c r="G41" s="6">
-        <v>134.85</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="5">
-        <v>12</v>
+        <v>2323</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E42" s="6">
-        <v>100.0</v>
+        <v>15.0</v>
       </c>
       <c r="F42" s="6">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" s="6">
-        <v>87.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
-        <v>1232</v>
+        <v>2323</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="G43" s="6">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="5">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="5">
+        <v>23232</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>20.15</v>
+      </c>
+      <c r="G44" s="6">
+        <v>134.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="5">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5">
+        <v>50</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1232</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="6">
         <v>500.0</v>
       </c>
-      <c r="F43" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="F46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="6">
         <v>500.0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="7">
-        <v>1820.0</v>
-      </c>
-      <c r="F44" s="7">
-        <v>77.09</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1742.91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C47" s="5">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="6">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
       <c r="F47" s="6">
         <v>0.0</v>
       </c>
       <c r="G47" s="6">
-        <v>100.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5">
-        <v>2</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="5">
-        <v>425</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="G48" s="6">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="5">
-        <v>3</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="5">
-        <v>514</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="6">
-        <v>120.0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="6">
-        <v>120.0</v>
+      <c r="A48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="7">
+        <v>2170.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>77.09</v>
+      </c>
+      <c r="G48" s="7">
+        <v>2092.91</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5">
-        <v>4</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="5">
-        <v>23222</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="6">
-        <v>130.0</v>
-      </c>
-      <c r="F50" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G50" s="6">
-        <v>130.0</v>
-      </c>
+      <c r="A50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="5">
-        <v>2312312</v>
+        <v>324</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="6">
-        <v>355.0</v>
+        <v>100.0</v>
       </c>
       <c r="F51" s="6">
-        <v>46.15</v>
+        <v>0.0</v>
       </c>
       <c r="G51" s="6">
-        <v>308.85</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="5">
-        <v>2223</v>
+        <v>425</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="6">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="F52" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G52" s="6">
-        <v>150.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="5">
-        <v>23232</v>
+        <v>514</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53" s="6">
-        <v>185.5</v>
+        <v>120.0</v>
       </c>
       <c r="F53" s="6">
-        <v>24.115</v>
+        <v>0.0</v>
       </c>
       <c r="G53" s="6">
-        <v>161.385</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="5">
-        <v>34324</v>
+        <v>23222</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="6">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
       <c r="F54" s="6">
-        <v>19.5</v>
+        <v>0.0</v>
       </c>
       <c r="G54" s="6">
-        <v>130.5</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="5">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55" s="5">
-        <v>23232</v>
+        <v>2312312</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="6">
-        <v>100.0</v>
+        <v>355.0</v>
       </c>
       <c r="F55" s="6">
-        <v>0.0</v>
+        <v>46.15</v>
       </c>
       <c r="G55" s="6">
-        <v>100.0</v>
+        <v>308.85</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C56" s="5">
-        <v>332</v>
+        <v>2223</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="6">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="F56" s="6">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="G56" s="6">
-        <v>87.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="5">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C57" s="5">
-        <v>3343</v>
+        <v>23232</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="6">
-        <v>120.0</v>
+        <v>185.5</v>
       </c>
       <c r="F57" s="6">
-        <v>0.0</v>
+        <v>24.115</v>
       </c>
       <c r="G57" s="6">
-        <v>120.0</v>
+        <v>161.385</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="5">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C58" s="5">
-        <v>23232</v>
+        <v>34324</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E58" s="6">
-        <v>155.0</v>
+        <v>150.0</v>
       </c>
       <c r="F58" s="6">
-        <v>0.0</v>
+        <v>19.5</v>
       </c>
       <c r="G58" s="6">
-        <v>155.0</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="5">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C59" s="5">
-        <v>3232</v>
+        <v>23232</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>15</v>
@@ -1732,124 +1738,239 @@
         <v>100.0</v>
       </c>
       <c r="F59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="5">
+        <v>22</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5">
+        <v>332</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F60" s="6">
         <v>13.0</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G60" s="6">
         <v>87.0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="7">
-        <v>1865.5</v>
-      </c>
-      <c r="F60" s="7">
-        <v>128.765</v>
-      </c>
-      <c r="G60" s="7">
-        <v>1736.735</v>
+    <row r="61" spans="1:7">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3343</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>120.0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="A62" s="5">
+        <v>30</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="5">
+        <v>23232</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="5">
+        <v>39</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="5">
+        <v>3232</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="7">
+        <v>1865.5</v>
+      </c>
+      <c r="F64" s="7">
+        <v>128.765</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1736.735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="5">
         <v>9</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C67" s="5">
         <v>23423</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E67" s="6">
         <v>550.0</v>
       </c>
-      <c r="F63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G63" s="6">
+      <c r="F67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="6">
         <v>550.0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="5">
+    <row r="68" spans="1:7">
+      <c r="A68" s="5">
         <v>10</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C68" s="5">
         <v>2312312</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E68" s="6">
         <v>550.0</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F68" s="6">
         <v>71.5</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G68" s="6">
         <v>478.5</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="5">
+    <row r="69" spans="1:7">
+      <c r="A69" s="5">
         <v>11</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C69" s="5">
         <v>23123</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E69" s="6">
         <v>550.0</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F69" s="6">
         <v>71.5</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G69" s="6">
         <v>478.5</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="2" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="5">
+        <v>52</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="7">
-        <v>1650.0</v>
-      </c>
-      <c r="F66" s="7">
-        <v>143.0</v>
-      </c>
-      <c r="G66" s="7">
-        <v>1507.0</v>
+      <c r="C70" s="5">
+        <v>21322</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>14.43</v>
+      </c>
+      <c r="G70" s="6">
+        <v>96.57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="7">
+        <v>1761.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>157.43</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1603.57</v>
       </c>
     </row>
   </sheetData>
@@ -1857,15 +1978,15 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A71:D71"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
